--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRE\worklog\Project Process library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRE\gitlibrary\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>MORNING</t>
   </si>
@@ -94,6 +94,66 @@
   </si>
   <si>
     <t>« Every Monday</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津银行无纸化立项资料编写</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京-郑州</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅银行无纸化科技部对接</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州-汉口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉口银行无纸化项目交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉口银行无纸化项目交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅银行无纸化咨询项目材料编写</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅银行无纸化咨询项目材料编写</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉口-北京</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流行业无纸化标准方案编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨银行无纸化项目交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨银行无纸化项目交流</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -631,10 +691,11 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,7 +1009,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -963,11 +1024,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -976,14 +1037,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1025,16 +1086,16 @@
         <v>6</v>
       </c>
       <c r="I3" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="31"/>
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="45">
-        <v>2016</v>
-      </c>
-      <c r="M3" s="46"/>
+      <c r="L3" s="46">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="47"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1045,16 +1106,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="47">
+      <c r="G4" s="48">
         <f>DATE(L3,I3,1)</f>
-        <v>42401</v>
-      </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+        <v>42795</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1097,150 +1158,162 @@
         <f>B7</f>
         <v>42814</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" s="35" t="str">
         <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
         <v/>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="35" t="str">
         <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42401</v>
-      </c>
-      <c r="I6" s="35">
+        <v/>
+      </c>
+      <c r="I6" s="35" t="str">
         <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42402</v>
+        <v/>
       </c>
       <c r="J6" s="35">
         <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42403</v>
+        <v>42795</v>
       </c>
       <c r="K6" s="35">
         <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42404</v>
+        <v>42796</v>
       </c>
       <c r="L6" s="35">
         <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42405</v>
+        <v>42797</v>
       </c>
       <c r="M6" s="35">
         <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42406</v>
+        <v>42798</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="51">
         <f>E2</f>
         <v>42814</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="35">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42407</v>
+        <v>42799</v>
       </c>
       <c r="H7" s="35">
         <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42408</v>
+        <v>42800</v>
       </c>
       <c r="I7" s="35">
         <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
-        <v>42409</v>
+        <v>42801</v>
       </c>
       <c r="J7" s="35">
         <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
-        <v>42410</v>
+        <v>42802</v>
       </c>
       <c r="K7" s="35">
         <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
-        <v>42411</v>
+        <v>42803</v>
       </c>
       <c r="L7" s="35">
         <f t="shared" si="0"/>
-        <v>42412</v>
+        <v>42804</v>
       </c>
       <c r="M7" s="35">
         <f t="shared" si="0"/>
-        <v>42413</v>
+        <v>42805</v>
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="40"/>
       <c r="G8" s="35">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42414</v>
+        <v>42806</v>
       </c>
       <c r="H8" s="35">
         <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
-        <v>42415</v>
+        <v>42807</v>
       </c>
       <c r="I8" s="35">
         <f t="shared" si="2"/>
-        <v>42416</v>
+        <v>42808</v>
       </c>
       <c r="J8" s="35">
         <f t="shared" si="2"/>
-        <v>42417</v>
+        <v>42809</v>
       </c>
       <c r="K8" s="35">
         <f t="shared" si="2"/>
-        <v>42418</v>
+        <v>42810</v>
       </c>
       <c r="L8" s="35">
         <f t="shared" si="2"/>
-        <v>42419</v>
+        <v>42811</v>
       </c>
       <c r="M8" s="35">
         <f t="shared" si="2"/>
-        <v>42420</v>
+        <v>42812</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
       <c r="F9" s="1"/>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
-        <v>42421</v>
+        <v>42813</v>
       </c>
       <c r="H9" s="35">
         <f t="shared" si="2"/>
-        <v>42422</v>
+        <v>42814</v>
       </c>
       <c r="I9" s="35">
         <f t="shared" si="2"/>
-        <v>42423</v>
+        <v>42815</v>
       </c>
       <c r="J9" s="35">
         <f t="shared" si="2"/>
-        <v>42424</v>
+        <v>42816</v>
       </c>
       <c r="K9" s="35">
         <f t="shared" si="2"/>
-        <v>42425</v>
+        <v>42817</v>
       </c>
       <c r="L9" s="35">
         <f t="shared" si="2"/>
-        <v>42426</v>
+        <v>42818</v>
       </c>
       <c r="M9" s="35">
         <f t="shared" si="2"/>
-        <v>42427</v>
+        <v>42819</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
@@ -1249,27 +1322,27 @@
       <c r="B10" s="3"/>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
-        <v>42428</v>
+        <v>42820</v>
       </c>
       <c r="H10" s="35">
         <f t="shared" si="2"/>
-        <v>42429</v>
-      </c>
-      <c r="I10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L10" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>42821</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42822</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42823</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" si="2"/>
+        <v>42824</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="2"/>
+        <v>42825</v>
       </c>
       <c r="M10" s="35" t="str">
         <f t="shared" si="2"/>
@@ -1283,9 +1356,15 @@
         <f>B12</f>
         <v>42815</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1318,13 +1397,19 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="51">
         <f>B7+1</f>
         <v>42815</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="41"/>
+      <c r="C12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>31</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -1336,7 +1421,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1353,7 +1438,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1389,8 +1474,12 @@
         <f>B17</f>
         <v>42816</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="2"/>
       <c r="G16" s="18"/>
@@ -1399,18 +1488,22 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="51">
         <f>B12+1</f>
         <v>42816</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="41"/>
+      <c r="C17" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="40"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1418,7 +1511,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1431,30 +1524,38 @@
         <f>B22</f>
         <v>42817</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="51">
         <f>B17+1</f>
         <v>42817</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="C22" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1467,30 +1568,38 @@
         <f>B27</f>
         <v>42818</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="51">
         <f>B22+1</f>
         <v>42818</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="C27" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1509,7 +1618,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="51">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1519,14 +1628,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1545,7 +1654,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="51">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1555,14 +1664,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1598,24 +1707,24 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="51">
         <f>B37+1</f>
         <v>42821</v>
       </c>
       <c r="C44" s="39"/>
-      <c r="D44" s="42"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1639,24 +1748,24 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="51">
         <f>B44+1</f>
         <v>42822</v>
       </c>
       <c r="C49" s="39"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1680,24 +1789,24 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="51">
         <f>B49+1</f>
         <v>42823</v>
       </c>
       <c r="C54" s="39"/>
-      <c r="D54" s="42"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="42"/>
+      <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1716,24 +1825,24 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="51">
         <f>B54+1</f>
         <v>42824</v>
       </c>
       <c r="C59" s="39"/>
-      <c r="D59" s="42"/>
+      <c r="D59" s="41"/>
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="43"/>
+      <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1752,7 +1861,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="51">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1762,14 +1871,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1788,7 +1897,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="51">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1798,14 +1907,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1824,7 +1933,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="51">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1834,14 +1943,14 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>

--- a/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-焦清旺.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRE\gitlibrary\Project-Process-library\Weekly Schedule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 08-09" sheetId="5" r:id="rId1"/>
+    <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
+    <sheet name="Week 16-17" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 08-09'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 16-17'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>MORNING</t>
   </si>
@@ -154,6 +151,66 @@
   </si>
   <si>
     <t>哈尔滨银行无纸化项目交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组例会</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>渤海证券营业厅无纸化项目标书编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>渤海证券营业厅无纸化项目标书编制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>华融金融交易中心无纸化交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>华融金融交易中心无纸化交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>半天年假</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场一部无纸化培训</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口代码学习</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京-威海</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>威海商行无纸化项目实施</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>威海-北京</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -696,6 +753,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,15 +779,10 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -998,7 +1056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1008,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1037,8 +1095,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
@@ -1092,10 +1150,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="48">
         <v>2017</v>
       </c>
-      <c r="M3" s="47"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1106,16 +1164,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="48">
+      <c r="G4" s="50">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1200,7 +1258,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="51">
+      <c r="B7" s="45">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1246,7 +1304,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="51"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1282,7 +1340,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="52"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1397,7 +1455,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="51">
+      <c r="B12" s="45">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1421,7 +1479,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="51"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1438,7 +1496,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="52"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1488,7 +1546,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="51">
+      <c r="B17" s="45">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1503,7 +1561,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="51"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1511,7 +1569,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="52"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1534,7 +1592,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="51">
+      <c r="B22" s="45">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1548,14 +1606,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="51"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="52"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1578,7 +1636,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="51">
+      <c r="B27" s="45">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1592,14 +1650,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="51"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="52"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1618,7 +1676,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="51">
+      <c r="B32" s="45">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1628,14 +1686,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="51"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="52"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1654,7 +1712,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="51">
+      <c r="B37" s="45">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1664,14 +1722,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="51"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="52"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1707,7 +1765,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="51">
+      <c r="B44" s="45">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1717,14 +1775,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="51"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="52"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1748,7 +1806,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="51">
+      <c r="B49" s="45">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1758,14 +1816,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="51"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="52"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1789,7 +1847,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="51">
+      <c r="B54" s="45">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1799,14 +1857,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="51"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="52"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1825,7 +1883,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="51">
+      <c r="B59" s="45">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1835,14 +1893,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="51"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="52"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1861,7 +1919,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="51">
+      <c r="B64" s="45">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1871,14 +1929,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="51"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="52"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1897,7 +1955,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="51">
+      <c r="B69" s="45">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1907,14 +1965,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="51"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="52"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1933,7 +1991,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="51">
+      <c r="B74" s="45">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1943,25 +2001,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="51"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="52"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -1976,6 +2029,1026 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42842</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42842</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>16</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>4</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="48">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="49"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="50">
+        <f>DATE(L3,I3,1)</f>
+        <v>42826</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42842</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="35" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="35" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="35" t="str">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v/>
+      </c>
+      <c r="L6" s="35" t="str">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v/>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42826</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="45">
+        <f>E2</f>
+        <v>42842</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42827</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42828</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42829</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42830</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7:M7" si="0">IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42831</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="0"/>
+        <v>42832</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="0"/>
+        <v>42833</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42834</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" ref="H8:M11" si="2">IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42835</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="2"/>
+        <v>42836</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="2"/>
+        <v>42837</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="2"/>
+        <v>42838</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>42839</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="2"/>
+        <v>42840</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>42841</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>42842</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>42843</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>42844</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>42845</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>42846</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>42847</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>42848</v>
+      </c>
+      <c r="H10" s="35">
+        <f t="shared" si="2"/>
+        <v>42849</v>
+      </c>
+      <c r="I10" s="35">
+        <f t="shared" si="2"/>
+        <v>42850</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="2"/>
+        <v>42851</v>
+      </c>
+      <c r="K10" s="35">
+        <f t="shared" si="2"/>
+        <v>42852</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="2"/>
+        <v>42853</v>
+      </c>
+      <c r="M10" s="35">
+        <f t="shared" si="2"/>
+        <v>42854</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42843</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="G11" s="35">
+        <f t="shared" si="1"/>
+        <v>42855</v>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="45">
+        <f>B7+1</f>
+        <v>42843</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="45"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42844</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="45">
+        <f>B12+1</f>
+        <v>42844</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42845</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="45">
+        <f>B17+1</f>
+        <v>42845</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42846</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="45">
+        <f>B22+1</f>
+        <v>42846</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42847</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="45">
+        <f>B27+1</f>
+        <v>42847</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42848</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="45">
+        <f>B32+1</f>
+        <v>42848</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42849</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42849</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="45">
+        <f>B37+1</f>
+        <v>42849</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42850</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="45">
+        <f>B44+1</f>
+        <v>42850</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42851</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="45">
+        <f>B49+1</f>
+        <v>42851</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42852</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="45">
+        <f>B54+1</f>
+        <v>42852</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42853</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="45">
+        <f>B59+1</f>
+        <v>42853</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42854</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="45">
+        <f>B64+1</f>
+        <v>42854</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42855</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="45">
+        <f>B69+1</f>
+        <v>42855</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
